--- a/biology/Botanique/Jacob_Sturm/Jacob_Sturm.xlsx
+++ b/biology/Botanique/Jacob_Sturm/Jacob_Sturm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob (ou Jakob) W. Sturm est un naturaliste bavarois, né le 21 mars 1771 à Nuremberg et mort le 28 novembre 1848 dans cette même ville.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du graveur Johann Georg Sturm qui le forme, très tôt, à l’art du dessin et de la gravure sur cuivre. À seize ans, il est envoyé par son père livrer des gravures destinées à illustrer une œuvre de Peter Simon Pallas (1741-1811). Le botaniste Johann Christian Daniel von Schreber (1739-1810), étant chargé de la publication de celui-ci, refuse ce travail et envoie le jeune homme à Nüremberg, afin qu'il soit conseillé par l’entomologiste Georg Wolfgang Franz Panzer (1755-1829) pour refaire les plantes. La santé de son père défaillant, c’est lui qui réalise les gravures. Jacob Sturm deviendra le graveur, outre de Schreber et de Panzer, de nombreux autres naturalistes allemands dont Eugen Johann Christoph Esper (1742-1810), Georg Franz Hoffmann (1760-1826), David Heinrich Hoppe (1760-1846), Christian Gottfried Daniel Nees von Esenbeck (1776-1858) et le comte Kaspar Maria von Sternberg (1761-1838).
-En 1791, il fait paraître cent planches gravées sur cuivre et illustrées à la main sous le titre d’Insekten-Cabinet nach der Natur gezeichnet und gestochen, cette série n’est connue que par un seul exemplaire, détenu par l’Academy of Natural Sciences of Philadelphia. Panzer entreprend alors la publication de Faunae Insectorum Germanicae Initia dont les 110 premières planches sont de la main de Sturm : il y représente 2 600 insectes[1].
+En 1791, il fait paraître cent planches gravées sur cuivre et illustrées à la main sous le titre d’Insekten-Cabinet nach der Natur gezeichnet und gestochen, cette série n’est connue que par un seul exemplaire, détenu par l’Academy of Natural Sciences of Philadelphia. Panzer entreprend alors la publication de Faunae Insectorum Germanicae Initia dont les 110 premières planches sont de la main de Sturm : il y représente 2 600 insectes.
 Le travail de Sturm ne se limite pas aux seules illustrations, sa collection d’insectes est réputée dans toute l’Europe et est l’une des plus riches du monde. Il est assisté par ses fils Johann Heinrich Christian Friedrich Sturm (de) (1805-1862) et Johann Wilhelm Sturm (1808-1865).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Quelques œuvres illustrées par Jacob Sturm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>la Deutschlands Flora in Abbildungen nach der Natur mit Beschreibungen (de 1796 à 1862) avec 2 472 gravures illustrant des textes de J.C.D. von Schreber, D.H. Hoppe, Heinrich Gottlieb Ludwig Reichenbach (1793-1879) et d’autres ;
 la traduction en allemand de l’Entomologie de Guillaume-Antoine Olivier (1756-1814) par Johann Karl Wilhelm Illiger (1775-1813), Abbildungen zu Karl Illigers Uebersetzung von Oliviers Entomologie (1802-1803, Nuremberg) ;
